--- a/results-partial/HW_C004_120.xlsx
+++ b/results-partial/HW_C004_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>28.10792215963118</v>
-      </c>
-      <c r="C2" t="n">
-        <v>32.22656278174182</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.60449809425855</v>
-      </c>
-      <c r="E2" t="n">
-        <v>32.19195751250777</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31.60449809425855</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28.36297644214574</v>
-      </c>
-      <c r="H2" t="n">
-        <v>32.05345581224955</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.76528672272455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.11777440470371</v>
+        <v>28.10792215963118</v>
       </c>
       <c r="C3" t="n">
-        <v>32.1909020531014</v>
+        <v>32.22656278174182</v>
       </c>
       <c r="D3" t="n">
-        <v>31.61155421364887</v>
+        <v>31.60449809425855</v>
       </c>
       <c r="E3" t="n">
-        <v>32.16113922714808</v>
+        <v>32.19195751250777</v>
       </c>
       <c r="F3" t="n">
-        <v>31.61155421364887</v>
+        <v>31.60449809425855</v>
       </c>
       <c r="G3" t="n">
-        <v>28.37413325356842</v>
+        <v>29.99538245883377</v>
       </c>
       <c r="H3" t="n">
-        <v>32.09127818402621</v>
+        <v>32.05345581224955</v>
       </c>
       <c r="I3" t="n">
-        <v>31.78556319134916</v>
+        <v>31.76528672272455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.14381941230749</v>
+        <v>28.11777440470371</v>
       </c>
       <c r="C4" t="n">
-        <v>32.23844710861387</v>
+        <v>32.1909020531014</v>
       </c>
       <c r="D4" t="n">
-        <v>31.65856686236824</v>
+        <v>31.61155421364887</v>
       </c>
       <c r="E4" t="n">
-        <v>32.20536697749115</v>
+        <v>32.16113922714808</v>
       </c>
       <c r="F4" t="n">
-        <v>31.65851972136903</v>
+        <v>31.61155421364887</v>
       </c>
       <c r="G4" t="n">
-        <v>28.40042904455199</v>
+        <v>29.99271478055577</v>
       </c>
       <c r="H4" t="n">
-        <v>32.05462947410271</v>
+        <v>32.09127818402621</v>
       </c>
       <c r="I4" t="n">
-        <v>31.76565399005397</v>
+        <v>31.78556319134916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.12480693753092</v>
+        <v>28.14381941230749</v>
       </c>
       <c r="C5" t="n">
-        <v>32.22734299700653</v>
+        <v>32.23844710861387</v>
       </c>
       <c r="D5" t="n">
-        <v>31.60497345222932</v>
+        <v>31.65856686236824</v>
       </c>
       <c r="E5" t="n">
-        <v>32.12254637359952</v>
+        <v>32.20536697749115</v>
       </c>
       <c r="F5" t="n">
-        <v>31.60497345222932</v>
+        <v>31.65851972136903</v>
       </c>
       <c r="G5" t="n">
-        <v>28.38438214802718</v>
+        <v>29.98877715921099</v>
       </c>
       <c r="H5" t="n">
-        <v>32.0301315161954</v>
+        <v>32.05462947410271</v>
       </c>
       <c r="I5" t="n">
-        <v>31.75379211307312</v>
+        <v>31.76565399005397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.17516414984882</v>
+        <v>28.12480693753092</v>
       </c>
       <c r="C6" t="n">
-        <v>32.25305801414699</v>
+        <v>32.22734299700653</v>
       </c>
       <c r="D6" t="n">
-        <v>31.64664313045142</v>
+        <v>31.60497345222932</v>
       </c>
       <c r="E6" t="n">
-        <v>32.17583744349389</v>
+        <v>32.12254637359952</v>
       </c>
       <c r="F6" t="n">
-        <v>31.64664313045142</v>
+        <v>31.60497345222932</v>
       </c>
       <c r="G6" t="n">
-        <v>28.43812959906243</v>
+        <v>29.96016774766115</v>
       </c>
       <c r="H6" t="n">
-        <v>32.07160624309774</v>
+        <v>32.0301315161954</v>
       </c>
       <c r="I6" t="n">
-        <v>31.77517655860976</v>
+        <v>31.75379211307312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.1531843665557</v>
+        <v>28.17516414984882</v>
       </c>
       <c r="C7" t="n">
-        <v>32.21508488828674</v>
+        <v>32.25305801414699</v>
       </c>
       <c r="D7" t="n">
-        <v>31.62359071408236</v>
+        <v>31.64664313045142</v>
       </c>
       <c r="E7" t="n">
-        <v>32.1614542835602</v>
+        <v>32.17583744349389</v>
       </c>
       <c r="F7" t="n">
-        <v>31.62359071408236</v>
+        <v>31.64664313045142</v>
       </c>
       <c r="G7" t="n">
-        <v>28.41245803189979</v>
+        <v>29.96230185788637</v>
       </c>
       <c r="H7" t="n">
-        <v>32.05443232977905</v>
+        <v>32.07160624309774</v>
       </c>
       <c r="I7" t="n">
-        <v>31.74109017152884</v>
+        <v>31.77517655860976</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.14640895792944</v>
+        <v>28.1531843665557</v>
       </c>
       <c r="C8" t="n">
-        <v>32.23689119396049</v>
+        <v>32.21508488828674</v>
       </c>
       <c r="D8" t="n">
-        <v>31.63986186348985</v>
+        <v>31.62359071408236</v>
       </c>
       <c r="E8" t="n">
-        <v>32.16322882488923</v>
+        <v>32.1614542835602</v>
       </c>
       <c r="F8" t="n">
-        <v>31.63986186348985</v>
+        <v>31.62359071408236</v>
       </c>
       <c r="G8" t="n">
-        <v>28.40898140969906</v>
+        <v>29.96354458098636</v>
       </c>
       <c r="H8" t="n">
-        <v>32.05030447396103</v>
+        <v>32.05443232977905</v>
       </c>
       <c r="I8" t="n">
-        <v>31.77235153516929</v>
+        <v>31.74109017152884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.15550935647234</v>
+        <v>28.14640895792944</v>
       </c>
       <c r="C9" t="n">
-        <v>32.25923400874838</v>
+        <v>32.23689119396049</v>
       </c>
       <c r="D9" t="n">
-        <v>31.67676642979057</v>
+        <v>31.63986186348985</v>
       </c>
       <c r="E9" t="n">
-        <v>32.17621313549587</v>
+        <v>32.16322882488923</v>
       </c>
       <c r="F9" t="n">
-        <v>31.67676642979057</v>
+        <v>31.63986186348985</v>
       </c>
       <c r="G9" t="n">
-        <v>28.40999333422609</v>
+        <v>29.95773238557932</v>
       </c>
       <c r="H9" t="n">
-        <v>32.05121752348959</v>
+        <v>32.05030447396103</v>
       </c>
       <c r="I9" t="n">
-        <v>31.76860141470566</v>
+        <v>31.77235153516929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.11680450606006</v>
+        <v>28.15550935647234</v>
       </c>
       <c r="C10" t="n">
-        <v>32.23218898784037</v>
+        <v>32.25923400874838</v>
       </c>
       <c r="D10" t="n">
-        <v>31.63148980256914</v>
+        <v>31.67676642979057</v>
       </c>
       <c r="E10" t="n">
-        <v>32.14541939581415</v>
+        <v>32.17621313549587</v>
       </c>
       <c r="F10" t="n">
-        <v>31.63148980256914</v>
+        <v>31.67676642979057</v>
       </c>
       <c r="G10" t="n">
-        <v>28.37102273012995</v>
+        <v>29.97698048042681</v>
       </c>
       <c r="H10" t="n">
-        <v>32.04951812926105</v>
+        <v>32.05121752348959</v>
       </c>
       <c r="I10" t="n">
-        <v>31.75406300672088</v>
+        <v>31.76860141470566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.11680450606006</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32.23218898784037</v>
+      </c>
+      <c r="D11" t="n">
+        <v>31.63148980256914</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.14541939581415</v>
+      </c>
+      <c r="F11" t="n">
+        <v>31.63148980256914</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.96611824534072</v>
+      </c>
+      <c r="H11" t="n">
+        <v>32.04951812926105</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.75406300672088</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>28.15215382069112</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>32.25142894579099</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>31.66940374903521</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>32.20433859308236</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>31.66940374903521</v>
       </c>
-      <c r="G11" t="n">
-        <v>28.40716963940151</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>29.99261928083128</v>
+      </c>
+      <c r="H12" t="n">
         <v>32.06297356399036</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>31.74276884501221</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.13935480717308</v>
-      </c>
-      <c r="C12" t="n">
-        <v>32.23311409792376</v>
-      </c>
-      <c r="D12" t="n">
-        <v>31.63673483119235</v>
-      </c>
-      <c r="E12" t="n">
-        <v>32.17075017670822</v>
-      </c>
-      <c r="F12" t="n">
-        <v>31.63673011709243</v>
-      </c>
-      <c r="G12" t="n">
-        <v>28.39696756327122</v>
-      </c>
-      <c r="H12" t="n">
-        <v>32.05695472501527</v>
-      </c>
-      <c r="I12" t="n">
-        <v>31.76243475489474</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.093759290750683</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.497380024019272</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.031395369535147</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.497375309919356</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2576127560981405</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.917599917842189</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.623079947721667</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8429245644219954</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9394538196015657</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9331718877636879</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9389085781441282</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9331718877636879</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9058901782674532</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9328980313194551</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9288559907202014</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8433886858819797</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9406990639924683</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9347993559683256</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9397593149172098</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9347993559683256</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9052946672555425</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.935836581881891</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9322983871572103</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8442391002192104</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9402492607306605</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9354322456040817</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9395275924988274</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9354324237352827</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9084981588018588</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9334979986875332</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9290681348261032</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8438559917971077</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9398145300940752</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9342936373717384</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9383631628607102</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9342936373717384</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.904100757107826</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9324950794856373</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9289923086387351</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8451036498784961</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9412470833463041</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9354847421018866</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9397072169174693</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9354847421018866</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9064641076429308</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.933675181482794</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9296496240538414</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8448519138191843</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9406775468686357</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9361894067372679</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9399992176089178</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9361894067372679</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9075837689589124</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9333130205005019</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.929717684243521</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8445485038513275</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9412746747788505</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9347589722070154</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9401783571831838</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9347589722070154</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9069085989324707</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9334625819201149</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9302258911163562</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8439612592366729</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9403570819835425</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9351899540374908</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9393923354713645</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9351899540374908</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.906090984333995</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9337388112303628</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9302469587491513</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8433202245469263</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9402851226401724</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9335651552544979</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9394509774208646</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9335651552544979</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9071151970573649</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9331514156504463</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9294438197622128</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.844075224866451</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9413530627405103</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9362727640624005</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9413931520628649</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9362727640624005</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9063005778154211</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9345633691652425</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9300418134580261</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.728898764027</v>
-      </c>
-      <c r="C2" t="n">
-        <v>28.97768810473239</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.68265928862431</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.03494056113448</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28.68265928862431</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.60818386384406</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28.15347852832511</v>
-      </c>
-      <c r="I2" t="n">
-        <v>27.08624481420919</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.70595960837813</v>
+        <v>19.728898764027</v>
       </c>
       <c r="C3" t="n">
-        <v>28.931085940267</v>
+        <v>28.97768810473239</v>
       </c>
       <c r="D3" t="n">
-        <v>28.62905607715522</v>
+        <v>28.68265928862431</v>
       </c>
       <c r="E3" t="n">
-        <v>28.96597007957888</v>
+        <v>29.03494056113448</v>
       </c>
       <c r="F3" t="n">
-        <v>28.62905607715522</v>
+        <v>28.68265928862431</v>
       </c>
       <c r="G3" t="n">
-        <v>20.59700588483838</v>
+        <v>25.19924582102525</v>
       </c>
       <c r="H3" t="n">
-        <v>28.13703451901332</v>
+        <v>28.15347852832511</v>
       </c>
       <c r="I3" t="n">
-        <v>27.10394760195453</v>
+        <v>27.08624481420919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.72178555133004</v>
+        <v>19.70595960837813</v>
       </c>
       <c r="C4" t="n">
-        <v>28.97895230394069</v>
+        <v>28.931085940267</v>
       </c>
       <c r="D4" t="n">
-        <v>28.62602819812864</v>
+        <v>28.62905607715522</v>
       </c>
       <c r="E4" t="n">
-        <v>28.99386777454463</v>
+        <v>28.96597007957888</v>
       </c>
       <c r="F4" t="n">
-        <v>28.62604483515443</v>
+        <v>28.62905607715522</v>
       </c>
       <c r="G4" t="n">
-        <v>20.60834960348094</v>
+        <v>25.17548594581054</v>
       </c>
       <c r="H4" t="n">
-        <v>28.13403374384782</v>
+        <v>28.13703451901332</v>
       </c>
       <c r="I4" t="n">
-        <v>27.05832995544236</v>
+        <v>27.10394760195453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.72064166612591</v>
+        <v>19.72178555133004</v>
       </c>
       <c r="C5" t="n">
-        <v>28.98464980282948</v>
+        <v>28.97895230394069</v>
       </c>
       <c r="D5" t="n">
-        <v>28.65967492981494</v>
+        <v>28.62602819812864</v>
       </c>
       <c r="E5" t="n">
-        <v>29.00338982374021</v>
+        <v>28.99386777454463</v>
       </c>
       <c r="F5" t="n">
-        <v>28.65967492981494</v>
+        <v>28.62604483515443</v>
       </c>
       <c r="G5" t="n">
-        <v>20.59669877298516</v>
+        <v>25.17397959689166</v>
       </c>
       <c r="H5" t="n">
-        <v>28.16424832429117</v>
+        <v>28.13403374384782</v>
       </c>
       <c r="I5" t="n">
-        <v>27.08713332244577</v>
+        <v>27.05832995544236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.71297852672667</v>
+        <v>19.72064166612591</v>
       </c>
       <c r="C6" t="n">
-        <v>28.9353951362527</v>
+        <v>28.98464980282948</v>
       </c>
       <c r="D6" t="n">
-        <v>28.63361574592692</v>
+        <v>28.65967492981494</v>
       </c>
       <c r="E6" t="n">
-        <v>28.96131601337514</v>
+        <v>29.00338982374021</v>
       </c>
       <c r="F6" t="n">
-        <v>28.63361574592692</v>
+        <v>28.65967492981494</v>
       </c>
       <c r="G6" t="n">
-        <v>20.60844246746072</v>
+        <v>25.19652988559356</v>
       </c>
       <c r="H6" t="n">
-        <v>28.14152745576934</v>
+        <v>28.16424832429117</v>
       </c>
       <c r="I6" t="n">
-        <v>27.08039163018092</v>
+        <v>27.08713332244577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.74178674772681</v>
+        <v>19.71297852672667</v>
       </c>
       <c r="C7" t="n">
-        <v>28.99093724330316</v>
+        <v>28.9353951362527</v>
       </c>
       <c r="D7" t="n">
-        <v>28.64507553264915</v>
+        <v>28.63361574592692</v>
       </c>
       <c r="E7" t="n">
-        <v>29.04669821696906</v>
+        <v>28.96131601337514</v>
       </c>
       <c r="F7" t="n">
-        <v>28.64498991401664</v>
+        <v>28.63361574592692</v>
       </c>
       <c r="G7" t="n">
-        <v>20.62500487435531</v>
+        <v>25.19285114393014</v>
       </c>
       <c r="H7" t="n">
-        <v>28.16674317199548</v>
+        <v>28.14152745576934</v>
       </c>
       <c r="I7" t="n">
-        <v>27.09288550936295</v>
+        <v>27.08039163018092</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.73285418503712</v>
+        <v>19.74178674772681</v>
       </c>
       <c r="C8" t="n">
-        <v>28.94962546224166</v>
+        <v>28.99093724330316</v>
       </c>
       <c r="D8" t="n">
-        <v>28.63974302744918</v>
+        <v>28.64507553264915</v>
       </c>
       <c r="E8" t="n">
-        <v>28.98099208849413</v>
+        <v>29.04669821696906</v>
       </c>
       <c r="F8" t="n">
-        <v>28.63968930311326</v>
+        <v>28.64498991401664</v>
       </c>
       <c r="G8" t="n">
-        <v>20.62141223901743</v>
+        <v>25.20458132002087</v>
       </c>
       <c r="H8" t="n">
-        <v>28.13663119091968</v>
+        <v>28.16674317199548</v>
       </c>
       <c r="I8" t="n">
-        <v>27.07299070618096</v>
+        <v>27.09288550936295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.72752058853814</v>
+        <v>19.73285418503712</v>
       </c>
       <c r="C9" t="n">
-        <v>28.99556521136055</v>
+        <v>28.94962546224166</v>
       </c>
       <c r="D9" t="n">
-        <v>28.67210525860784</v>
+        <v>28.63974302744918</v>
       </c>
       <c r="E9" t="n">
-        <v>29.01491565121537</v>
+        <v>28.98099208849413</v>
       </c>
       <c r="F9" t="n">
-        <v>28.67210525860784</v>
+        <v>28.63968930311326</v>
       </c>
       <c r="G9" t="n">
-        <v>20.61891516180209</v>
+        <v>25.17643700545214</v>
       </c>
       <c r="H9" t="n">
-        <v>28.15672244995626</v>
+        <v>28.13663119091968</v>
       </c>
       <c r="I9" t="n">
-        <v>27.07293064718144</v>
+        <v>27.07299070618096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.72224611023843</v>
+        <v>19.72752058853814</v>
       </c>
       <c r="C10" t="n">
-        <v>28.92939397431245</v>
+        <v>28.99556521136055</v>
       </c>
       <c r="D10" t="n">
-        <v>28.62465831813822</v>
+        <v>28.67210525860784</v>
       </c>
       <c r="E10" t="n">
-        <v>28.97479920088147</v>
+        <v>29.01491565121537</v>
       </c>
       <c r="F10" t="n">
-        <v>28.62465831813822</v>
+        <v>28.67210525860784</v>
       </c>
       <c r="G10" t="n">
-        <v>20.6054109704144</v>
+        <v>25.17544979476151</v>
       </c>
       <c r="H10" t="n">
-        <v>28.13562197306298</v>
+        <v>28.15672244995626</v>
       </c>
       <c r="I10" t="n">
-        <v>27.08732976810781</v>
+        <v>27.07293064718144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.72224611023843</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.92939397431245</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.62465831813822</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.97479920088147</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.62465831813822</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25.17085819530619</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28.13562197306298</v>
+      </c>
+      <c r="I11" t="n">
+        <v>27.08732976810781</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.69238771847423</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>28.94249944323535</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>28.62743227046411</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>28.95917475675963</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>28.62743227046411</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.56568405294556</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>25.1585804443622</v>
+      </c>
+      <c r="H12" t="n">
         <v>28.10207817607494</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>27.03225101006257</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.72070594666025</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28.96157926224755</v>
-      </c>
-      <c r="D12" t="n">
-        <v>28.64400486469586</v>
-      </c>
-      <c r="E12" t="n">
-        <v>28.99360641666929</v>
-      </c>
-      <c r="F12" t="n">
-        <v>28.64399259410159</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.60551078911441</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28.14281195332561</v>
-      </c>
-      <c r="I12" t="n">
-        <v>27.07744349651285</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.240873315587301</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.923298918035609</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.272900470009048</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.923286647441344</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8848048424541624</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8.422106006665366</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.356737549852603</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5356873390915874</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8871946694598006</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8835047917548615</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.882157184474639</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8835047917548615</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7703554709539602</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.855873634220457</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8234163628921631</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5344141229503202</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8846137952985211</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8793806466005603</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8808360484978204</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8793806466005603</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7666779471497766</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8515597967384279</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8189567267247674</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5347540326144475</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8841620862388212</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8821217328356419</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.88121714952676</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8821225971527584</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7679231163386743</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8511396297443584</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8174613893933637</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5355157205041038</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8867086343626341</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8831970106527194</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8811828540675726</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8831970106527194</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7681356223950829</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8516566052078874</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8219502949546008</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5350241784937702</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8836920715315911</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8817935189907968</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8818500267951719</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8817935189907968</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7704604305515376</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8521922217719133</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8197877984087939</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5359292755405971</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8878000131704329</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8820421399469499</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8848084325495316</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8820416590921217</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7672687770870806</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8529736950971153</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8216363536794398</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5350835859103035</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8847972892069201</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8802836422126725</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8803190140600112</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.880279202565037</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7651294909198512</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8499684620906022</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8182746969560134</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.535553415531781</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8863191632369494</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8841897645578736</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8825239433999187</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8841897645578736</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7658837888662016</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8522301474099828</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8189186346824465</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5351302741304225</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8837353457462473</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8829225567229846</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8810848846041114</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8829225567229846</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7682008781613641</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8501721565189302</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8205057024689344</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5333717793654166</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.884185438062523</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8803832035732432</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8831528377740556</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8803832035732432</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7650079554172979</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8521758482645331</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8209451084600397</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.70040253248522</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.53746441450165</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.1800064817609</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25.25684638176877</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25.1800064817609</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.20816700823847</v>
-      </c>
-      <c r="H2" t="n">
-        <v>23.69408789450418</v>
-      </c>
-      <c r="I2" t="n">
-        <v>22.41941499020276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.67537168995946</v>
+        <v>14.70040253248522</v>
       </c>
       <c r="C3" t="n">
-        <v>25.48451056709937</v>
+        <v>25.53746441450165</v>
       </c>
       <c r="D3" t="n">
-        <v>25.18154495944702</v>
+        <v>25.1800064817609</v>
       </c>
       <c r="E3" t="n">
-        <v>25.21967146429215</v>
+        <v>25.25684638176877</v>
       </c>
       <c r="F3" t="n">
-        <v>25.18154495944702</v>
+        <v>25.1800064817609</v>
       </c>
       <c r="G3" t="n">
-        <v>17.18373255315099</v>
+        <v>21.12548179734982</v>
       </c>
       <c r="H3" t="n">
-        <v>23.67196706121245</v>
+        <v>23.69408789450418</v>
       </c>
       <c r="I3" t="n">
-        <v>22.42462580133787</v>
+        <v>22.41941499020276</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.69562797425608</v>
+        <v>14.67537168995946</v>
       </c>
       <c r="C4" t="n">
-        <v>25.50832314739435</v>
+        <v>25.48451056709937</v>
       </c>
       <c r="D4" t="n">
-        <v>25.18046793200988</v>
+        <v>25.18154495944702</v>
       </c>
       <c r="E4" t="n">
-        <v>25.2336940148344</v>
+        <v>25.21967146429215</v>
       </c>
       <c r="F4" t="n">
-        <v>25.18046793200988</v>
+        <v>25.18154495944702</v>
       </c>
       <c r="G4" t="n">
-        <v>17.20560420440534</v>
+        <v>21.10895067312235</v>
       </c>
       <c r="H4" t="n">
-        <v>23.67607795289606</v>
+        <v>23.67196706121245</v>
       </c>
       <c r="I4" t="n">
-        <v>22.40056152968618</v>
+        <v>22.42462580133787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.67355480684625</v>
+        <v>14.69562797425608</v>
       </c>
       <c r="C5" t="n">
-        <v>25.4916979398195</v>
+        <v>25.50832314739435</v>
       </c>
       <c r="D5" t="n">
-        <v>25.17600361888716</v>
+        <v>25.18046793200988</v>
       </c>
       <c r="E5" t="n">
-        <v>25.22640875165103</v>
+        <v>25.2336940148344</v>
       </c>
       <c r="F5" t="n">
-        <v>25.17600361888716</v>
+        <v>25.18046793200988</v>
       </c>
       <c r="G5" t="n">
-        <v>17.18276686356556</v>
+        <v>21.10915721443668</v>
       </c>
       <c r="H5" t="n">
-        <v>23.65305598500715</v>
+        <v>23.67607795289606</v>
       </c>
       <c r="I5" t="n">
-        <v>22.41664976767504</v>
+        <v>22.40056152968618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.70840102243224</v>
+        <v>14.67355480684625</v>
       </c>
       <c r="C6" t="n">
-        <v>25.58627989785606</v>
+        <v>25.4916979398195</v>
       </c>
       <c r="D6" t="n">
-        <v>25.25592356655944</v>
+        <v>25.17600361888716</v>
       </c>
       <c r="E6" t="n">
-        <v>25.31765510520528</v>
+        <v>25.22640875165103</v>
       </c>
       <c r="F6" t="n">
-        <v>25.25592356655944</v>
+        <v>25.17600361888716</v>
       </c>
       <c r="G6" t="n">
-        <v>17.23248097697603</v>
+        <v>21.09771993258374</v>
       </c>
       <c r="H6" t="n">
-        <v>23.73993404927279</v>
+        <v>23.65305598500715</v>
       </c>
       <c r="I6" t="n">
-        <v>22.46707636027751</v>
+        <v>22.41664976767504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.67130193969093</v>
+        <v>14.70840102243224</v>
       </c>
       <c r="C7" t="n">
-        <v>25.53189896688293</v>
+        <v>25.58627989785606</v>
       </c>
       <c r="D7" t="n">
-        <v>25.17177398115836</v>
+        <v>25.25592356655944</v>
       </c>
       <c r="E7" t="n">
-        <v>25.24889260362704</v>
+        <v>25.31765510520528</v>
       </c>
       <c r="F7" t="n">
-        <v>25.17177398115836</v>
+        <v>25.25592356655944</v>
       </c>
       <c r="G7" t="n">
-        <v>17.1868901629852</v>
+        <v>21.16713544304207</v>
       </c>
       <c r="H7" t="n">
-        <v>23.71905555324877</v>
+        <v>23.73993404927279</v>
       </c>
       <c r="I7" t="n">
-        <v>22.46482555290106</v>
+        <v>22.46707636027751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.66907123849355</v>
+        <v>14.67130193969093</v>
       </c>
       <c r="C8" t="n">
-        <v>25.43532280313236</v>
+        <v>25.53189896688293</v>
       </c>
       <c r="D8" t="n">
-        <v>25.1521561741516</v>
+        <v>25.17177398115836</v>
       </c>
       <c r="E8" t="n">
-        <v>25.18201503311291</v>
+        <v>25.24889260362704</v>
       </c>
       <c r="F8" t="n">
-        <v>25.15216899071241</v>
+        <v>25.17177398115836</v>
       </c>
       <c r="G8" t="n">
-        <v>17.17755078675825</v>
+        <v>21.1280169111518</v>
       </c>
       <c r="H8" t="n">
-        <v>23.62678657864157</v>
+        <v>23.71905555324877</v>
       </c>
       <c r="I8" t="n">
-        <v>22.37173025450315</v>
+        <v>22.46482555290106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.67519272858435</v>
+        <v>14.66907123849355</v>
       </c>
       <c r="C9" t="n">
-        <v>25.49171210659672</v>
+        <v>25.43532280313236</v>
       </c>
       <c r="D9" t="n">
-        <v>25.16250189521884</v>
+        <v>25.1521561741516</v>
       </c>
       <c r="E9" t="n">
-        <v>25.24949337416251</v>
+        <v>25.18201503311291</v>
       </c>
       <c r="F9" t="n">
-        <v>25.16250189521884</v>
+        <v>25.15216899071241</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19408707506854</v>
+        <v>21.06215970898912</v>
       </c>
       <c r="H9" t="n">
-        <v>23.67257957510466</v>
+        <v>23.62678657864157</v>
       </c>
       <c r="I9" t="n">
-        <v>22.41646191964223</v>
+        <v>22.37173025450315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.68538070810352</v>
+        <v>14.67519272858435</v>
       </c>
       <c r="C10" t="n">
-        <v>25.51847448458886</v>
+        <v>25.49171210659672</v>
       </c>
       <c r="D10" t="n">
-        <v>25.18984658397202</v>
+        <v>25.16250189521884</v>
       </c>
       <c r="E10" t="n">
-        <v>25.24609844925559</v>
+        <v>25.24949337416251</v>
       </c>
       <c r="F10" t="n">
-        <v>25.18984658397202</v>
+        <v>25.16250189521884</v>
       </c>
       <c r="G10" t="n">
-        <v>17.20120670482719</v>
+        <v>21.11652806388463</v>
       </c>
       <c r="H10" t="n">
-        <v>23.7121140070005</v>
+        <v>23.67257957510466</v>
       </c>
       <c r="I10" t="n">
-        <v>22.47481551046128</v>
+        <v>22.41646191964223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.68538070810352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.51847448458886</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.18984658397202</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.24609844925559</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.18984658397202</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.13973196554781</v>
+      </c>
+      <c r="H11" t="n">
+        <v>23.7121140070005</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22.47481551046128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.68009263299783</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>25.48905402735603</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>25.18585236954664</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>25.22681532507292</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>25.18585236954664</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.19034979364853</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>21.12185825133826</v>
+      </c>
+      <c r="H12" t="n">
         <v>23.69412438775136</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>22.44822683878434</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.68343972738494</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.50747383552278</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.18360775627118</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.24075905029826</v>
-      </c>
-      <c r="F12" t="n">
-        <v>25.18360903792727</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17.19628361296241</v>
-      </c>
-      <c r="H12" t="n">
-        <v>23.68597830446395</v>
-      </c>
-      <c r="I12" t="n">
-        <v>22.43043885254714</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10.82403410813784</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.50016802888624</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.55731932291332</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.50016931054233</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.512843885577471</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9.002538577079008</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.746999125162201</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.3089555128011707</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.79215500060574</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7774412977188407</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7796205206437526</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7774412977188407</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5730125786271764</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.710281221168331</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6493795323226337</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3071567800641236</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7880416789509926</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7763983959754145</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7752146219981894</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7763983959754145</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5706295388176646</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7081400590671123</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6483821812854447</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3085504061217564</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7879372562922289</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.771340808146699</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7744132954652174</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.771340808146699</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5672562426737577</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7060494987147492</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6461186438097399</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3083223378910743</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7886394099769889</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7690155128819882</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7760057803559934</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7690155128819882</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5663158469994714</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7131960866373631</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6480698433438701</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3097754053866775</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7901954772163726</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7738917558172551</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7774129192217126</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7738917558172551</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5694444927550356</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7091962898332861</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6516815495584473</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3074437754704458</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7893827343144074</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7754452604156481</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7754278953767332</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7754452604156481</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5660830274136139</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7082814070808896</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6493017396991793</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3067852444481621</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7865271267222683</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7732513523660137</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.774519285177254</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7732521938701304</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5655078794627714</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7057304463970273</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6462314541805635</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.307729739201295</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7882778798423853</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7844889707724956</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7740944038738818</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7844889707724956</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5731088282985494</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.706765333855866</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6479613319205287</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3084971723518794</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7901083851237384</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7832972409251575</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7744445847455563</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7832972409251575</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5682841806143899</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7106820657736365</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6519245147305957</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3089571391421039</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7889220616231507</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7737687673770318</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7741999148959503</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7737687673770318</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5718154404174829</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7105843842865954</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6505484902357184</v>
       </c>
     </row>
   </sheetData>
